--- a/POSEIDON/LTResource/resources/testdata/LTTestData.xlsx
+++ b/POSEIDON/LTResource/resources/testdata/LTTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h895428/git/Poseidon/POSEIDON/LTResource/resources/testdata/"/>
     </mc:Choice>
@@ -17,7 +17,8 @@
     <sheet name="LTShipBillPage" sheetId="50" r:id="rId3"/>
     <sheet name="LTPaymentPage" sheetId="51" r:id="rId4"/>
     <sheet name="LTReviewSubmitPage" sheetId="52" r:id="rId5"/>
-    <sheet name="TestOrder" sheetId="53" r:id="rId6"/>
+    <sheet name="LTWebsomPage" sheetId="54" r:id="rId6"/>
+    <sheet name="TestOrder" sheetId="53" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
   <si>
     <t>TCID</t>
   </si>
@@ -133,17 +134,71 @@
     <t>ORDERS</t>
   </si>
   <si>
-    <t>1065063510</t>
-  </si>
-  <si>
     <t>1065063511</t>
+  </si>
+  <si>
+    <t>WeightTX</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Printer not configured for user </t>
+  </si>
+  <si>
+    <t>Ready to Ship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Packages were shipped successfully. </t>
+  </si>
+  <si>
+    <t>Packages were shipped successfully. </t>
+  </si>
+  <si>
+    <t>carrierNameTX</t>
+  </si>
+  <si>
+    <t>shipmentConfirmWE</t>
+  </si>
+  <si>
+    <t>printMessageTitleErrorWE</t>
+  </si>
+  <si>
+    <t>readyToShipWE</t>
+  </si>
+  <si>
+    <t>TC_ToWebSomFulfillment</t>
+  </si>
+  <si>
+    <t>userNameTX</t>
+  </si>
+  <si>
+    <t>loginPasswordTX</t>
+  </si>
+  <si>
+    <t>storeIDTX</t>
+  </si>
+  <si>
+    <t>TC_ToPlaceSingleLineSingleQuantity</t>
+  </si>
+  <si>
+    <t>numberOfQuantityTX</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>TC_ToPlaceSingleLineMultiQuantity</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,20 +267,501 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -806,62 +1342,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="73" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="72" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -869,15 +1440,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
@@ -895,18 +1466,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="70" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="69" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="68" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -914,20 +1495,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.1640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -1017,18 +1599,76 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="66" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="65" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="64" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1036,21 +1676,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.83203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -1125,18 +1765,64 @@
       </c>
       <c r="H3" s="2"/>
     </row>
+    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="61" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="60" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1144,15 +1830,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
@@ -1170,18 +1856,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="56" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1189,15 +1885,175 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="43" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="42" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="41" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="40" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E3">
+    <cfRule type="duplicateValues" dxfId="39" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E3">
+    <cfRule type="duplicateValues" dxfId="37" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E3">
+    <cfRule type="duplicateValues" dxfId="35" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E3">
+    <cfRule type="duplicateValues" dxfId="33" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="29" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:F1">
+    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:F1">
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:F1">
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:F1">
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
@@ -1218,33 +2074,43 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="54" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="53" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POSEIDON/LTResource/resources/testdata/LTTestData.xlsx
+++ b/POSEIDON/LTResource/resources/testdata/LTTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="926"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="926" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LTHomePage" sheetId="48" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="60">
   <si>
     <t>TCID</t>
   </si>
@@ -193,13 +193,31 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>MultiLine</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>0500019698158</t>
+  </si>
+  <si>
+    <t>TC_ToPlaceMultiLineSingleQuantity</t>
+  </si>
+  <si>
+    <t>searchStringIDTX</t>
+  </si>
+  <si>
+    <t>TC_ToPlaceMultiLineMultiQuantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,12 +244,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -267,13 +279,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -281,207 +292,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="56">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1342,20 +1153,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1365,74 +1177,134 @@
       <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="73" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="72" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1478,16 +1350,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="70" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="69" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="68" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1495,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1560,7 +1432,7 @@
       <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1589,7 +1461,7 @@
       <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1615,7 +1487,7 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1644,7 +1516,7 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1657,18 +1529,76 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="66" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="65" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="64" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="45" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="44" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1676,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1721,22 +1651,22 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="2"/>
@@ -1745,22 +1675,22 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="2"/>
@@ -1769,22 +1699,22 @@
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1792,37 +1722,83 @@
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="61" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="60" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1868,16 +1844,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="58" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="56" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1936,7 +1912,7 @@
       <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1953,7 +1929,7 @@
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1968,76 +1944,76 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="43" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="42" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="41" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="40" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E3">
-    <cfRule type="duplicateValues" dxfId="39" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E3">
-    <cfRule type="duplicateValues" dxfId="37" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E3">
-    <cfRule type="duplicateValues" dxfId="35" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E3">
-    <cfRule type="duplicateValues" dxfId="33" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="29" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:F1">
-    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:F1">
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:F1">
-    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:F1">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2045,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2087,30 +2063,35 @@
         <v>52</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="55" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="54" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="53" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="34" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="32" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POSEIDON/LTResource/resources/testdata/LTTestData.xlsx
+++ b/POSEIDON/LTResource/resources/testdata/LTTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="926" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="926" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LTHomePage" sheetId="48" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -211,6 +211,27 @@
   </si>
   <si>
     <t>TC_ToPlaceMultiLineMultiQuantity</t>
+  </si>
+  <si>
+    <t>Ready for Bagging</t>
+  </si>
+  <si>
+    <t>noOfBagsTX</t>
+  </si>
+  <si>
+    <t>readyForBaggingWE</t>
+  </si>
+  <si>
+    <t>readyForCoustomerPickupWE</t>
+  </si>
+  <si>
+    <t>Ready for Customer Pickup</t>
+  </si>
+  <si>
+    <t>coustomerPickedUPWE</t>
+  </si>
+  <si>
+    <t>Customer Picked Up</t>
   </si>
 </sst>
 </file>
@@ -1861,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1877,9 +1898,13 @@
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,8 +1932,20 @@
       <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1924,8 +1961,17 @@
       <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1941,79 +1987,88 @@
       <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E3">
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E3">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E3">
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E3">
-    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:F1">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:F1">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:F1">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:F1">
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2023,7 +2078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2070,28 +2125,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="34" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="32" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/POSEIDON/LTResource/resources/testdata/LTTestData.xlsx
+++ b/POSEIDON/LTResource/resources/testdata/LTTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="926" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="926"/>
   </bookViews>
   <sheets>
     <sheet name="LTHomePage" sheetId="48" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="69">
   <si>
     <t>TCID</t>
   </si>
@@ -195,12 +195,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>MultiLine</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>0500019698158</t>
   </si>
   <si>
@@ -232,6 +226,18 @@
   </si>
   <si>
     <t>Customer Picked Up</t>
+  </si>
+  <si>
+    <t>pickupinStoreBN</t>
+  </si>
+  <si>
+    <t>10018</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TC_ToPlaceBopisSingleLineSingleQuantity</t>
   </si>
 </sst>
 </file>
@@ -1174,21 +1180,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,13 +1207,16 @@
         <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1216,13 +1227,16 @@
         <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1232,12 +1246,17 @@
       <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1247,12 +1266,17 @@
       <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -1262,12 +1286,17 @@
       <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -1277,14 +1306,19 @@
       <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -1293,15 +1327,18 @@
         <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -1310,9 +1347,34 @@
         <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -1388,15 +1450,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1552,7 +1614,7 @@
     </row>
     <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1581,7 +1643,7 @@
     </row>
     <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -1605,6 +1667,35 @@
         <v>20</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1627,15 +1718,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1764,7 +1855,7 @@
     </row>
     <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>32</v>
@@ -1787,7 +1878,7 @@
     </row>
     <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>32</v>
@@ -1805,6 +1896,29 @@
         <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1884,7 +1998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -1933,16 +2047,16 @@
         <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -1962,13 +2076,13 @@
         <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
         <v>64</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -1988,13 +2102,13 @@
         <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" t="s">
         <v>64</v>
-      </c>
-      <c r="M3" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2120,7 +2234,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
